--- a/biology/Zoologie/Furcifer_lateralis/Furcifer_lateralis.xlsx
+++ b/biology/Zoologie/Furcifer_lateralis/Furcifer_lateralis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Furcifer lateralis est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Furcifer lateralis est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Furcifer lateralis major a été élevée au rang d'espèce par Florio, Ingram, Rakotondravony, Louis et Raxworthy en 2012[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Furcifer lateralis major a été élevée au rang d'espèce par Florio, Ingram, Rakotondravony, Louis et Raxworthy en 2012.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1831 "1830" : A synopsis of the species of Class Reptilia. The animal kingdom arranged in conformity with its organisation by the Baron Cuvier with additional descriptions of all the species hither named, and of many before noticed, V Whittaker, Treacher and Co., London, vol. 9, Supplement, p. 1-110 (texte intégral).</t>
         </is>
